--- a/doc/プロジェクト開発演習　SSH48 /2.システム設計/01_業務フロー/業務フロー　第1.0版.xlsx
+++ b/doc/プロジェクト開発演習　SSH48 /2.システム設計/01_業務フロー/業務フロー　第1.0版.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenya/Desktop/プロジェクト開発演習　SSH48 /2.システム設計/01_業務フロー/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sakaiharuka/Documents/GitHub/SSH48/doc/プロジェクト開発演習　SSH48 /2.システム設計/01_業務フロー/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57B4839-BAF6-BF46-8356-B053A049AD8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{123D73FA-4F37-7841-8B00-29015AB61CFA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">記述様式!$A$1:$F$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'業務フロー 概要図'!$A$1:$AL$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'業務フロー(1)'!$A$1:$AG$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'業務フロー(1)'!$A$1:$AR$44</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$44</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">記述様式!$2:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'業務フロー 概要図'!$1:$3</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>業務フロー</t>
     <rPh sb="0" eb="2">
@@ -778,13 +778,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t xml:space="preserve">  投票開始確認画面に遷移する。</t>
-    <rPh sb="0" eb="2">
-      <t>トウヒョ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t xml:space="preserve">  ると投票開始確認メッセージ表示処理を行い、</t>
     <rPh sb="0" eb="2">
       <t>ウヒョ</t>
@@ -796,17 +789,6 @@
     <rPh sb="0" eb="1">
       <t>オ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  ユーザーがYES,NOを選択することで、投票を</t>
-    <rPh sb="0" eb="2">
-      <t>センタk</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  開始するかしない間処理を行う</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -814,55 +796,128 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>3.投票開始処理を行い、投票画面に遷移する</t>
+    <t>仕様変更による内容の更新</t>
     <rPh sb="0" eb="2">
-      <t>ウヒョ</t>
+      <t>シヨウヘンコウニヨ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t xml:space="preserve">  投票メッセージを表示し、ユーザーは投票を行う</t>
+    <t>酒井</t>
     <rPh sb="0" eb="2">
-      <t>トウヒョ</t>
+      <t>サカイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>4.投票メッセージ表示後投票終了画面に遷移し、</t>
-    <rPh sb="0" eb="1">
-      <t>ト</t>
-    </rPh>
+    <t>UP</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t xml:space="preserve">  投票終了メッセージ表示する。</t>
-    <rPh sb="0" eb="2">
-      <t>トウヒョ</t>
-    </rPh>
+    <t>DOWN</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>5.投票結果表示画面に遷移し、投票結果表示後、</t>
-    <rPh sb="0" eb="1">
-      <t>ト</t>
+    <t>温度変更中止</t>
+    <rPh sb="0" eb="2">
+      <t>オンド</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t xml:space="preserve">  待機画面に遷移する。</t>
+    <t xml:space="preserve">  投票遷移画面にてGoogleフォームのリンクを投稿する</t>
     <rPh sb="0" eb="2">
-      <t>タイk</t>
+      <t>トウヒョ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Noの場合</t>
+    <t xml:space="preserve">  ユーザーがYES,NOを選択させ次の画面(投票画面、待機画面)</t>
+    <rPh sb="0" eb="2">
+      <t>センタk</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>3.投票中止画面に遷移し、投票開始しないメッセージ表示後、</t>
+    <t>　へ遷移させる。</t>
+    <rPh sb="16" eb="17">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3.投票画面に遷移する。ユーザーは投票を行う。</t>
+    <rPh sb="0" eb="2">
+      <t>ウヒョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NOの場合</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>3.待機画面に遷移する。</t>
+    <rPh sb="0" eb="2">
+      <t>タイk</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「はい」が多い場合</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>4.集計処理を行う。</t>
+    <rPh sb="0" eb="2">
+      <t>シュウケ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5.温度変更の投票集計を行う。</t>
+    <rPh sb="0" eb="2">
+      <t>オオンd</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>6.投票が多かった温度変更をもとにSlackにラズベリーパイ用の</t>
     <rPh sb="0" eb="1">
-      <t>オ</t>
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　メッセージを送信する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>7.投票終了画面に遷移する。温度変更を行ったことをSlackで</t>
+    <rPh sb="0" eb="2">
+      <t>オンd</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　ユーザに通知する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「いいえ」が多い場合</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5.温度変更の投票集計を行わず、投票中止画面に遷移する</t>
+    <rPh sb="0" eb="2">
+      <t>オンd</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>6.投票中止のメッセージを送信する。</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1280,7 +1335,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1293,6 +1347,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="56" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5027,16 +5084,6 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>投票開始確認メッセ</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
@@ -5044,7 +5091,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>-</a:t>
+            <a:t>Google</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -5054,7 +5101,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>ジ表示処理</a:t>
+            <a:t>フォーム作成</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -5129,13 +5176,13 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>268941</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>14942</xdr:rowOff>
+      <xdr:rowOff>13213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>254001</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>29881</xdr:rowOff>
+      <xdr:rowOff>28152</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5153,8 +5200,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4975412" y="1509060"/>
-          <a:ext cx="298823" cy="14939"/>
+          <a:off x="5031441" y="1506639"/>
+          <a:ext cx="302560" cy="14939"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5183,13 +5230,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>254001</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>59766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>224117</xdr:colOff>
+      <xdr:colOff>282223</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>119530</xdr:rowOff>
     </xdr:to>
@@ -5208,8 +5255,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5274235" y="1255060"/>
-          <a:ext cx="1225176" cy="507999"/>
+          <a:off x="5334001" y="1247451"/>
+          <a:ext cx="1298222" cy="518375"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDisplay">
           <a:avLst/>
@@ -5254,7 +5301,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>投票ルーム投票開始確認画面</a:t>
+            <a:t>投票ルーム投票遷移画面</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -5270,329 +5317,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>59765</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>156723</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>126997</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="AutoShape 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{909752C7-C3BA-854C-8622-286B7712419A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3765177" y="2749177"/>
-          <a:ext cx="1411781" cy="515467"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="700"/>
-            <a:t>投票開始</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="700"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>78362</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>59765</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>239057</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>59765</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="カギ線コネクタ 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3A795EE-9DB9-EE45-99F5-BC6A9392E6E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="69" idx="2"/>
-          <a:endCxn id="50" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="5029533" y="1891888"/>
-          <a:ext cx="298824" cy="1415754"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>296491</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>18676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>2</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>149410</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="54" name="カギ線コネクタ 53">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78F3F0B0-9E48-8F42-BF4E-954D9DCF9050}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="50" idx="1"/>
-          <a:endCxn id="60" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000" flipV="1">
-          <a:off x="3120373" y="3006911"/>
-          <a:ext cx="644805" cy="280146"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>156723</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>18676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>224118</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="カギ線コネクタ 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8AD934A-809C-BF46-A524-130A8E567F94}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="50" idx="3"/>
-          <a:endCxn id="89" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5176958" y="3006911"/>
-          <a:ext cx="381160" cy="265206"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>164353</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>149410</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>114861</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>74704</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="AutoShape 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79229FAE-4E24-F841-9582-6EFA1E2281C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2674471" y="3287057"/>
-          <a:ext cx="891802" cy="522941"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1000"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>投票開始処理</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>310229</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15741</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>12720</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:colOff>3026</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>15740</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5609,8 +5343,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="627529" y="1987177"/>
-          <a:ext cx="954015" cy="448235"/>
+          <a:off x="630153" y="2148565"/>
+          <a:ext cx="972491" cy="465343"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
           <a:avLst/>
@@ -5665,15 +5399,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>12720</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>97118</xdr:rowOff>
+      <xdr:colOff>3026</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>93298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>313763</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>119530</xdr:rowOff>
+      <xdr:colOff>255595</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>97119</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5686,13 +5420,195 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="64" idx="3"/>
-          <a:endCxn id="69" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1581544" y="2188883"/>
-          <a:ext cx="3752454" cy="22412"/>
+        <a:xfrm>
+          <a:off x="1602644" y="2381237"/>
+          <a:ext cx="3771730" cy="3821"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>267142</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>119530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>268112</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2244</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="直線矢印コネクタ 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40533A3B-4F75-744A-902F-81DFD0CA2D14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="49" idx="2"/>
+          <a:endCxn id="44" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5982142" y="1765826"/>
+          <a:ext cx="970" cy="341325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>315757</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6743</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="AutoShape 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37617921-F356-3A46-A459-301C93018760}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="637490" y="4732867"/>
+          <a:ext cx="977920" cy="454211"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartManualInput">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="900"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック"/>
+              <a:ea typeface="ＭＳ ゴシック"/>
+            </a:rPr>
+            <a:t>投票</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6743</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>100106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>115932</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE58380-F185-A04A-9844-B71F5B1D71B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="114" idx="3"/>
+          <a:endCxn id="83" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1615410" y="4959973"/>
+          <a:ext cx="3716473" cy="15826"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5721,22 +5637,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>313763</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>134472</xdr:rowOff>
+      <xdr:colOff>252061</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2244</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>164352</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>59765</xdr:rowOff>
+      <xdr:colOff>282222</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>59764</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="AutoShape 9">
+        <xdr:cNvPr id="44" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F09D5C-3431-5346-B1FD-FA58A09ABF92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79810FEE-7A86-6441-A64C-AE9518B15E2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5746,8 +5662,96 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5333998" y="1927413"/>
-          <a:ext cx="1105648" cy="522940"/>
+          <a:off x="5332061" y="2107151"/>
+          <a:ext cx="1300161" cy="516132"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDisplay">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>Slack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>投票ルーム投票確認画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>139939</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>127258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>145751</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>52308</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="AutoShape 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0288D8D6-1779-DD40-8996-B4975F35AED9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5537439" y="5588258"/>
+          <a:ext cx="958312" cy="534650"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5782,7 +5786,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>投票開始確認処理</a:t>
+            <a:t>投票集計処理</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -5799,34 +5803,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>239057</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>119530</xdr:rowOff>
+      <xdr:colOff>253538</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>59764</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>239058</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>134472</xdr:rowOff>
+      <xdr:colOff>267142</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="直線矢印コネクタ 78">
+        <xdr:cNvPr id="63" name="直線矢印コネクタ 62">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40533A3B-4F75-744A-902F-81DFD0CA2D14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62F7EDB5-4E2D-DA4D-8BEB-0121FFB5D313}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="49" idx="2"/>
-          <a:endCxn id="69" idx="0"/>
+          <a:stCxn id="44" idx="2"/>
+          <a:endCxn id="70" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5886822" y="1763059"/>
-          <a:ext cx="1" cy="164354"/>
+          <a:off x="5968538" y="2625164"/>
+          <a:ext cx="13604" cy="350870"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5854,23 +5858,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>298823</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>176389</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>149412</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>59764</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>13187</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>20197</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="AutoShape 9">
+        <xdr:cNvPr id="70" name="AutoShape 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6171D32C-60D1-B341-9307-A30F4BD84E7D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27FEF9C7-D268-E549-B805-B3E7A48346DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5880,8 +5884,126 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5005294" y="3272117"/>
-          <a:ext cx="1105647" cy="522941"/>
+          <a:off x="5256389" y="2975093"/>
+          <a:ext cx="1424298" cy="525845"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="700"/>
+            <a:t>投票</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="700"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>16378</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>65202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>22225</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="直線矢印コネクタ 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB5383D3-7E8A-7F45-A8B2-2ADED49EC02C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6683878" y="3240202"/>
+          <a:ext cx="640847" cy="1473"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>29956</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>130175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>297963</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>53747</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="AutoShape 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E586756-4E42-8B40-8A0C-A483732B8A62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7332456" y="3000375"/>
+          <a:ext cx="903007" cy="533172"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5916,7 +6038,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>投票開始しない処理</a:t>
+            <a:t>フォーム終了</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -5932,23 +6054,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>209177</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>119527</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>234706</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63743</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>224119</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>119529</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>264867</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>121019</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="AutoShape 13">
+        <xdr:cNvPr id="77" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E913214-09F5-3C4A-8990-9338CE520E37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90FCE07F-F931-094B-97B8-D77CEB73D839}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5958,8 +6080,1015 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4915648" y="4153645"/>
-          <a:ext cx="1270000" cy="448237"/>
+          <a:off x="5314706" y="3848343"/>
+          <a:ext cx="1300161" cy="514476"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDisplay">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>Slack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>投票ルーム投票画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>253756</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>21493</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>255618</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57762</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直線矢印コネクタ 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA08579D-B1DE-4942-9A76-13066B3DE85D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5968756" y="3501293"/>
+          <a:ext cx="1862" cy="341069"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>20948</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>73113</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="AutoShape 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04DDE74A-315A-8745-A29A-43770094AEFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5264150" y="4705350"/>
+          <a:ext cx="1424298" cy="523963"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="700"/>
+            <a:t>投票</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="700"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>262212</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>4519</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直線矢印コネクタ 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2B8EEBB-1C2C-764D-BE00-071C7A8F1B9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5975350" y="4362450"/>
+          <a:ext cx="1862" cy="341069"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>268562</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>118819</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="直線矢印コネクタ 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1062866A-B538-344E-89D8-DA345140E785}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5981700" y="5238750"/>
+          <a:ext cx="1862" cy="341069"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>149226</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>111126</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="カギ線コネクタ 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{991A7351-35F9-6444-B7A8-7EE76896C813}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6291263" y="5170489"/>
+          <a:ext cx="898525" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99823"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>20948</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>115932</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="直線コネクタ 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1052CCE-02A1-2846-9E90-A0E5DC0D8118}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="83" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6688448" y="4965700"/>
+          <a:ext cx="293377" cy="1632"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>143936</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>53746</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>163961</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>135465</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="カギ線コネクタ 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC3AA523-36B4-9D4A-AD05-B682659DEB37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="75" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5972022" y="4148594"/>
+          <a:ext cx="2520119" cy="1306958"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100058"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>203199</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>39997</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>15962</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="AutoShape 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{380732C7-CFB6-C64E-9222-29FBAF8E0CC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5350932" y="6485466"/>
+          <a:ext cx="1445465" cy="523963"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDecision">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="700"/>
+            <a:t>結果</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="700"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>59267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>281262</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95536</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="直線矢印コネクタ 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{685BF07F-1BF8-DF4C-B2A0-A281E946AAFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6070600" y="6138334"/>
+          <a:ext cx="1862" cy="341069"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>245533</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>67734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>313266</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>34863</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="AutoShape 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE671D9-0F70-214E-9904-379C4D7B1AD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5393266" y="7366001"/>
+          <a:ext cx="1354667" cy="424329"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDisplay">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>Slack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>投票ルーム投票終了画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>287866</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>289728</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>53202</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="125" name="直線矢印コネクタ 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34C29803-108C-464C-A713-568385CE469A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6079066" y="7010400"/>
+          <a:ext cx="1862" cy="341069"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>262467</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>84668</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38350</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>114550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="AutoShape 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6913CD5-0F69-344B-BB19-ED858D04682D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5410200" y="8144935"/>
+          <a:ext cx="1384550" cy="334682"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1000"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>投票終了メッセージ表示</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>287866</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>289728</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>70136</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="直線矢印コネクタ 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D8822AF-7E01-F846-924B-2533D62AC7C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6079066" y="7789334"/>
+          <a:ext cx="1862" cy="341069"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>8466</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>270436</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>10459</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="AutoShape 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B0F51B-D493-5E43-B82E-1D8B192B5D2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5477933" y="8847667"/>
+          <a:ext cx="1227170" cy="442259"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartDisplay">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>Slack</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>投票ルーム待機画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ Ｐゴシック"/>
+            <a:ea typeface="ＭＳ Ｐゴシック"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>296332</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>298194</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>10869</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="直線矢印コネクタ 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9612323E-49D3-324B-B1CD-BFFCB2F83715}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6087532" y="8492067"/>
+          <a:ext cx="1862" cy="341069"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>8466</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>59268</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>23408</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>59270</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="AutoShape 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18667537-CC9B-574C-8141-DDC95CA39C6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7408333" y="7357535"/>
+          <a:ext cx="1301875" cy="457202"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDisplay">
           <a:avLst/>
@@ -6020,23 +7149,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>14941</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>119528</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>84667</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>268942</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>104587</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>9962</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>86658</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="AutoShape 13">
+        <xdr:cNvPr id="134" name="AutoShape 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{958CD511-DFAF-C947-BE6C-7AF81DC89FBB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09FFDB0B-4793-424F-A65A-92751034E13A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6046,208 +7175,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2525059" y="4153646"/>
-          <a:ext cx="1195295" cy="433294"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDisplay">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>Slack</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>投票ルーム投票画面</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>296490</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>74704</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>298825</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>119528</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="94" name="直線矢印コネクタ 93">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{881E3E47-3D7B-F04F-955C-F49A08910BDB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="60" idx="2"/>
-          <a:endCxn id="93" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3120372" y="3809998"/>
-          <a:ext cx="2335" cy="343648"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>216648</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>59764</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>224118</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>119527</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="98" name="直線矢印コネクタ 97">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3D59E55-B0FC-5B42-B9B2-779AF1A15CB6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="89" idx="2"/>
-          <a:endCxn id="92" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5550648" y="3795058"/>
-          <a:ext cx="7470" cy="358587"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>283881</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>209176</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>29882</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="AutoShape 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF8B7EC9-9851-B842-AF7D-ED00C2FEABA6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4990352" y="4826000"/>
-          <a:ext cx="1180353" cy="582706"/>
+          <a:off x="7484534" y="8161866"/>
+          <a:ext cx="1212228" cy="594659"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -6298,23 +7227,76 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>16934</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>67733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>194237</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>74707</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>18796</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>104002</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="直線矢印コネクタ 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED3CE56E-E057-BB45-A5E0-F573E8036045}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8060267" y="7823200"/>
+          <a:ext cx="1862" cy="341069"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>135466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>312770</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>120525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="112" name="AutoShape 13">
+        <xdr:cNvPr id="137" name="AutoShape 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{693E89F4-9064-724D-B7EC-A1ADF658D545}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EA8150F-28A8-9749-BD88-B9C609DA81E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6324,8 +7306,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4960471" y="5767295"/>
-          <a:ext cx="1195295" cy="433294"/>
+          <a:off x="7450667" y="9110133"/>
+          <a:ext cx="1227170" cy="442259"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDisplay">
           <a:avLst/>
@@ -6386,604 +7368,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>14941</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>44825</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>16933</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>93133</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>104589</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>18795</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>129402</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="113" name="AutoShape 9">
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="138" name="直線矢印コネクタ 137">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1481BB6-6E2F-B64B-A0D9-590E508356AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB07BF5B-1607-0147-A238-592F25DAA550}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2525059" y="4826001"/>
-          <a:ext cx="1180353" cy="358588"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1000"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>投票メッセージ表示</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57543</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>149411</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="114" name="AutoShape 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37617921-F356-3A46-A459-301C93018760}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="672352" y="4781176"/>
-          <a:ext cx="954015" cy="448235"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartManualInput">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="900"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ ゴシック"/>
-              <a:ea typeface="ＭＳ ゴシック"/>
-            </a:rPr>
-            <a:t>投票</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>268941</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>14942</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>14941</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="115" name="AutoShape 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4757556F-F405-A246-9A4D-61463031BE04}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2465294" y="5543177"/>
-          <a:ext cx="1314823" cy="418353"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDisplay">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>Slack</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>投票ルーム投票終了画面</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>254001</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>104588</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>29884</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="AutoShape 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EBBE9F8-5018-184A-A216-A91392DDEEB2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2450354" y="6230470"/>
-          <a:ext cx="1344706" cy="328706"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1000"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>投票終了メッセージ表示</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>179295</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>104590</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>29881</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="AutoShape 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{989E81A7-1FB9-5C44-AAEC-A30D9EB12969}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2375648" y="6768352"/>
-          <a:ext cx="1494118" cy="433294"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDisplay">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>Slack</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>投票ルーム投票結果表示画面</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>239058</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>74706</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>14941</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>104588</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="118" name="AutoShape 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A3AAA9D-2B3D-7A4D-989B-8EB7CE764DDC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2435411" y="7545294"/>
-          <a:ext cx="1344706" cy="328706"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1000"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>投票結果表示</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>149411</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="120" name="AutoShape 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{847A5FE6-4132-5A48-852C-EE3F381BF6EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4542117" y="7560236"/>
-          <a:ext cx="1195295" cy="358588"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDisplay">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>Slack</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ Ｐゴシック"/>
-              <a:ea typeface="ＭＳ Ｐゴシック"/>
-            </a:rPr>
-            <a:t>投票ルーム待機画面</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="ＭＳ Ｐゴシック"/>
-            <a:ea typeface="ＭＳ Ｐゴシック"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>291354</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>104587</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>298825</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>44825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="121" name="直線矢印コネクタ 120">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE86F21-5F00-F24E-9823-6B12802396D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="93" idx="2"/>
-          <a:endCxn id="113" idx="0"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3115236" y="4586940"/>
-          <a:ext cx="7471" cy="239061"/>
+        <a:xfrm>
+          <a:off x="8060266" y="8763000"/>
+          <a:ext cx="1862" cy="341069"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -7011,429 +7421,37 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>291354</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>104589</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>39997</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>58781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>298824</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>14942</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>15938</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>59268</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="124" name="直線矢印コネクタ 123">
+        <xdr:cNvPr id="140" name="カギ線コネクタ 139">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBE32800-0E9D-C34D-A13B-063D2756AA50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D55D093D-3A03-5746-926A-2653BF3A13DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="113" idx="2"/>
-          <a:endCxn id="115" idx="0"/>
+          <a:stCxn id="119" idx="3"/>
+          <a:endCxn id="133" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3115236" y="5184589"/>
-          <a:ext cx="7470" cy="358588"/>
+          <a:off x="6796397" y="6747448"/>
+          <a:ext cx="1262874" cy="610087"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>298824</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>298825</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>104588</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="127" name="直線矢印コネクタ 126">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE9CEA7E-AC9F-4F4A-AD6F-225CB82E9E25}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="115" idx="2"/>
-          <a:endCxn id="116" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3122706" y="5961530"/>
-          <a:ext cx="1" cy="268940"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>298825</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>298825</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="131" name="直線矢印コネクタ 130">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F07D9E67-C353-3746-8B86-B4B46E8D24FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="116" idx="2"/>
-          <a:endCxn id="117" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3122707" y="6559176"/>
-          <a:ext cx="0" cy="209176"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>283882</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>29881</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>298825</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>74706</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="135" name="直線矢印コネクタ 134">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE6FED9A-A6F5-A643-A7BF-1AC9F442011F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="117" idx="2"/>
-          <a:endCxn id="118" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3107764" y="7201646"/>
-          <a:ext cx="14943" cy="343648"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>14941</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>149411</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>119530</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="139" name="直線矢印コネクタ 138">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB522D69-6E4C-564A-B8B8-7E98276EE2CC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="118" idx="3"/>
-          <a:endCxn id="120" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3780117" y="7709647"/>
-          <a:ext cx="762000" cy="29883"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57543</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>74706</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>14941</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>74707</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE58380-F185-A04A-9844-B71F5B1D71B4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="114" idx="3"/>
-          <a:endCxn id="113" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1626367" y="5005294"/>
-          <a:ext cx="898692" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>216648</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>119529</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>246529</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="直線矢印コネクタ 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD94B13A-0D6B-1949-8E25-44EA621B61D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="92" idx="2"/>
-          <a:endCxn id="111" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5550648" y="4601882"/>
-          <a:ext cx="29881" cy="224118"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>224119</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>29882</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>246529</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>89648</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="直線矢印コネクタ 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6D9CACF-AC09-C14A-AC94-D815BE58FF28}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="111" idx="2"/>
-          <a:endCxn id="112" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5558119" y="5408706"/>
-          <a:ext cx="22410" cy="358589"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
+        <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
@@ -7783,8 +7801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FT44"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:Q11"/>
+    <sheetView view="pageLayout" topLeftCell="L15" zoomScale="227" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="227" workbookViewId="0">
+      <selection activeCell="AD29" sqref="AD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -8866,7 +8884,7 @@
       <c r="D27" s="62"/>
       <c r="E27" s="62"/>
       <c r="F27" s="110">
-        <v>42864</v>
+        <v>43594</v>
       </c>
       <c r="G27" s="111"/>
       <c r="H27" s="111"/>
@@ -8891,7 +8909,7 @@
       <c r="AA27" s="62"/>
       <c r="AB27" s="63"/>
       <c r="AC27" s="65"/>
-      <c r="AD27" s="76" t="s">
+      <c r="AD27" s="75" t="s">
         <v>59</v>
       </c>
       <c r="AE27" s="14"/>
@@ -8903,11 +8921,15 @@
       <c r="C28" s="62"/>
       <c r="D28" s="62"/>
       <c r="E28" s="62"/>
-      <c r="F28" s="110"/>
+      <c r="F28" s="110">
+        <v>43614</v>
+      </c>
       <c r="G28" s="111"/>
       <c r="H28" s="111"/>
       <c r="I28" s="112"/>
-      <c r="J28" s="75"/>
+      <c r="J28" s="74" t="s">
+        <v>71</v>
+      </c>
       <c r="K28" s="62"/>
       <c r="L28" s="62"/>
       <c r="M28" s="62"/>
@@ -8927,7 +8949,9 @@
       <c r="AA28" s="62"/>
       <c r="AB28" s="63"/>
       <c r="AC28" s="65"/>
-      <c r="AD28" s="76"/>
+      <c r="AD28" s="75" t="s">
+        <v>72</v>
+      </c>
       <c r="AE28" s="14"/>
       <c r="AF28" s="15"/>
     </row>
@@ -8961,7 +8985,7 @@
       <c r="AA29" s="62"/>
       <c r="AB29" s="63"/>
       <c r="AC29" s="65"/>
-      <c r="AD29" s="76"/>
+      <c r="AD29" s="75"/>
       <c r="AE29" s="14"/>
       <c r="AF29" s="15"/>
     </row>
@@ -8995,7 +9019,7 @@
       <c r="AA30" s="62"/>
       <c r="AB30" s="63"/>
       <c r="AC30" s="65"/>
-      <c r="AD30" s="76"/>
+      <c r="AD30" s="75"/>
       <c r="AE30" s="14"/>
       <c r="AF30" s="15"/>
     </row>
@@ -9506,7 +9530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="85" zoomScaleNormal="50" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="F10" zoomScale="150" zoomScaleNormal="50" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="W42" sqref="W42"/>
     </sheetView>
   </sheetViews>
@@ -11442,60 +11466,71 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:FU53"/>
+  <dimension ref="A1:GF63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView tabSelected="1" topLeftCell="AD15" zoomScale="269" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="AG30" sqref="AG30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
     <col min="5" max="6" width="4.1640625" style="21" customWidth="1"/>
-    <col min="7" max="30" width="4.1640625" style="1" customWidth="1"/>
-    <col min="31" max="33" width="4.1640625" style="22" customWidth="1"/>
-    <col min="34" max="37" width="4" style="1" customWidth="1"/>
-    <col min="38" max="16384" width="9" style="1"/>
+    <col min="7" max="41" width="4.1640625" style="1" customWidth="1"/>
+    <col min="42" max="44" width="4.1640625" style="22" customWidth="1"/>
+    <col min="45" max="48" width="4" style="1" customWidth="1"/>
+    <col min="49" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:177" ht="15" customHeight="1">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:188" ht="15" customHeight="1">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
-    </row>
-    <row r="2" spans="1:177" ht="14.25" customHeight="1">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
+      <c r="AO1" s="70"/>
+      <c r="AP1" s="70"/>
+      <c r="AQ1" s="70"/>
+      <c r="AR1" s="70"/>
+    </row>
+    <row r="2" spans="1:188" ht="14.25" customHeight="1">
       <c r="A2" s="124" t="s">
         <v>1</v>
       </c>
@@ -11526,21 +11561,32 @@
       <c r="V2" s="125"/>
       <c r="W2" s="125"/>
       <c r="X2" s="125"/>
-      <c r="Y2" s="126"/>
-      <c r="Z2" s="124" t="s">
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="125"/>
+      <c r="AA2" s="125"/>
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="125"/>
+      <c r="AD2" s="125"/>
+      <c r="AE2" s="125"/>
+      <c r="AF2" s="125"/>
+      <c r="AG2" s="125"/>
+      <c r="AH2" s="125"/>
+      <c r="AI2" s="125"/>
+      <c r="AJ2" s="126"/>
+      <c r="AK2" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" s="125"/>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="126"/>
-      <c r="AD2" s="114" t="s">
+      <c r="AL2" s="125"/>
+      <c r="AM2" s="125"/>
+      <c r="AN2" s="126"/>
+      <c r="AO2" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="115"/>
-      <c r="AG2" s="116"/>
-    </row>
-    <row r="3" spans="1:177" ht="14.25" customHeight="1">
+      <c r="AP2" s="115"/>
+      <c r="AQ2" s="115"/>
+      <c r="AR2" s="116"/>
+    </row>
+    <row r="3" spans="1:188" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>64</v>
       </c>
@@ -11571,21 +11617,32 @@
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="114" t="s">
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="115"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="114" t="s">
+      <c r="AL3" s="115"/>
+      <c r="AM3" s="115"/>
+      <c r="AN3" s="116"/>
+      <c r="AO3" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="AE3" s="115"/>
-      <c r="AF3" s="115"/>
-      <c r="AG3" s="116"/>
-    </row>
-    <row r="4" spans="1:177" s="9" customFormat="1" ht="15" customHeight="1">
+      <c r="AP3" s="115"/>
+      <c r="AQ3" s="115"/>
+      <c r="AR3" s="116"/>
+    </row>
+    <row r="4" spans="1:188" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="102" t="s">
         <v>33</v>
       </c>
@@ -11610,10 +11667,8 @@
       <c r="R4" s="113"/>
       <c r="S4" s="113"/>
       <c r="T4" s="113"/>
-      <c r="U4" s="103"/>
-      <c r="V4" s="113" t="s">
-        <v>2</v>
-      </c>
+      <c r="U4" s="113"/>
+      <c r="V4" s="113"/>
       <c r="W4" s="113"/>
       <c r="X4" s="113"/>
       <c r="Y4" s="113"/>
@@ -11621,22 +11676,24 @@
       <c r="AA4" s="113"/>
       <c r="AB4" s="113"/>
       <c r="AC4" s="113"/>
-      <c r="AD4" s="127"/>
-      <c r="AE4" s="127"/>
-      <c r="AF4" s="127"/>
-      <c r="AG4" s="109"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
-      <c r="AP4" s="8"/>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="8"/>
-      <c r="AS4" s="8"/>
+      <c r="AD4" s="113"/>
+      <c r="AE4" s="113"/>
+      <c r="AF4" s="103"/>
+      <c r="AG4" s="113" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="113"/>
+      <c r="AI4" s="113"/>
+      <c r="AJ4" s="113"/>
+      <c r="AK4" s="113"/>
+      <c r="AL4" s="113"/>
+      <c r="AM4" s="113"/>
+      <c r="AN4" s="113"/>
+      <c r="AO4" s="127"/>
+      <c r="AP4" s="127"/>
+      <c r="AQ4" s="127"/>
+      <c r="AR4" s="109"/>
+      <c r="AS4" s="7"/>
       <c r="AT4" s="8"/>
       <c r="AU4" s="8"/>
       <c r="AV4" s="8"/>
@@ -11769,8 +11826,19 @@
       <c r="FS4" s="8"/>
       <c r="FT4" s="8"/>
       <c r="FU4" s="8"/>
-    </row>
-    <row r="5" spans="1:177" ht="12.75" customHeight="1">
+      <c r="FV4" s="8"/>
+      <c r="FW4" s="8"/>
+      <c r="FX4" s="8"/>
+      <c r="FY4" s="8"/>
+      <c r="FZ4" s="8"/>
+      <c r="GA4" s="8"/>
+      <c r="GB4" s="8"/>
+      <c r="GC4" s="8"/>
+      <c r="GD4" s="8"/>
+      <c r="GE4" s="8"/>
+      <c r="GF4" s="8"/>
+    </row>
+    <row r="5" spans="1:188" ht="12.75" customHeight="1">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -11791,7 +11859,7 @@
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
-      <c r="U5" s="12"/>
+      <c r="U5" s="11"/>
       <c r="V5" s="11"/>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
@@ -11802,10 +11870,21 @@
       <c r="AC5" s="11"/>
       <c r="AD5" s="11"/>
       <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="12"/>
-    </row>
-    <row r="6" spans="1:177" ht="12.75" customHeight="1">
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="11"/>
+      <c r="AJ5" s="11"/>
+      <c r="AK5" s="11"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="11"/>
+      <c r="AN5" s="11"/>
+      <c r="AO5" s="11"/>
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="12"/>
+    </row>
+    <row r="6" spans="1:188" ht="12.75" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -11826,10 +11905,8 @@
       <c r="R6" s="14"/>
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="14" t="s">
-        <v>67</v>
-      </c>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
       <c r="W6" s="14"/>
       <c r="X6" s="14"/>
       <c r="Y6" s="14"/>
@@ -11839,10 +11916,23 @@
       <c r="AC6" s="14"/>
       <c r="AD6" s="14"/>
       <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="15"/>
-    </row>
-    <row r="7" spans="1:177" ht="12.75" customHeight="1">
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+      <c r="AK6" s="14"/>
+      <c r="AL6" s="14"/>
+      <c r="AM6" s="14"/>
+      <c r="AN6" s="14"/>
+      <c r="AO6" s="14"/>
+      <c r="AP6" s="14"/>
+      <c r="AQ6" s="14"/>
+      <c r="AR6" s="15"/>
+    </row>
+    <row r="7" spans="1:188" ht="12.75" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -11863,12 +11953,10 @@
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="W7" s="67"/>
-      <c r="X7" s="67"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
       <c r="Y7" s="14"/>
       <c r="Z7" s="14"/>
       <c r="AA7" s="14"/>
@@ -11876,10 +11964,23 @@
       <c r="AC7" s="14"/>
       <c r="AD7" s="14"/>
       <c r="AE7" s="14"/>
-      <c r="AF7" s="14"/>
-      <c r="AG7" s="15"/>
-    </row>
-    <row r="8" spans="1:177" ht="12.75" customHeight="1">
+      <c r="AF7" s="15"/>
+      <c r="AG7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH7" s="67"/>
+      <c r="AI7" s="67"/>
+      <c r="AJ7" s="14"/>
+      <c r="AK7" s="14"/>
+      <c r="AL7" s="14"/>
+      <c r="AM7" s="14"/>
+      <c r="AN7" s="14"/>
+      <c r="AO7" s="14"/>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" s="14"/>
+      <c r="AR7" s="15"/>
+    </row>
+    <row r="8" spans="1:188" ht="12.75" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -11900,21 +12001,32 @@
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="W8" s="68"/>
-      <c r="X8" s="68"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
       <c r="AA8" s="14"/>
       <c r="AB8" s="14"/>
       <c r="AC8" s="14"/>
       <c r="AD8" s="14"/>
       <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="15"/>
-    </row>
-    <row r="9" spans="1:177" ht="12.75" customHeight="1">
+      <c r="AF8" s="15"/>
+      <c r="AG8" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH8" s="68"/>
+      <c r="AI8" s="68"/>
+      <c r="AL8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="14"/>
+      <c r="AO8" s="14"/>
+      <c r="AP8" s="14"/>
+      <c r="AQ8" s="14"/>
+      <c r="AR8" s="15"/>
+    </row>
+    <row r="9" spans="1:188" ht="12.75" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -11933,23 +12045,23 @@
       <c r="P9" s="16"/>
       <c r="Q9" s="14"/>
       <c r="R9" s="14"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="1" t="s">
-        <v>70</v>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="1" t="s">
+        <v>69</v>
       </c>
-      <c r="W9" s="67"/>
-      <c r="X9" s="67"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="14"/>
-      <c r="AE9" s="14"/>
-      <c r="AF9" s="14"/>
-      <c r="AG9" s="15"/>
-    </row>
-    <row r="10" spans="1:177" ht="12.75" customHeight="1">
+      <c r="AH9" s="67"/>
+      <c r="AI9" s="67"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="14"/>
+      <c r="AL9" s="14"/>
+      <c r="AM9" s="14"/>
+      <c r="AN9" s="14"/>
+      <c r="AO9" s="14"/>
+      <c r="AP9" s="14"/>
+      <c r="AQ9" s="14"/>
+      <c r="AR9" s="15"/>
+    </row>
+    <row r="10" spans="1:188" ht="12.75" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -11969,22 +12081,22 @@
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="1" t="s">
-        <v>71</v>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="1" t="s">
+        <v>77</v>
       </c>
-      <c r="W10" s="68"/>
-      <c r="X10" s="68"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="14"/>
-      <c r="AE10" s="14"/>
-      <c r="AF10" s="14"/>
-      <c r="AG10" s="15"/>
-    </row>
-    <row r="11" spans="1:177" ht="12.75" customHeight="1">
+      <c r="AH10" s="68"/>
+      <c r="AI10" s="68"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="14"/>
+      <c r="AP10" s="14"/>
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="15"/>
+    </row>
+    <row r="11" spans="1:188" ht="12.75" customHeight="1">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -12004,22 +12116,22 @@
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="1" t="s">
-        <v>72</v>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="1" t="s">
+        <v>78</v>
       </c>
-      <c r="W11" s="68"/>
-      <c r="X11" s="68"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="14"/>
-      <c r="AE11" s="14"/>
-      <c r="AF11" s="14"/>
-      <c r="AG11" s="15"/>
-    </row>
-    <row r="12" spans="1:177" ht="12.75" customHeight="1">
+      <c r="AH11" s="68"/>
+      <c r="AI11" s="68"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="14"/>
+      <c r="AQ11" s="14"/>
+      <c r="AR11" s="15"/>
+    </row>
+    <row r="12" spans="1:188" ht="12.75" customHeight="1">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -12038,22 +12150,12 @@
       <c r="P12" s="16"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="14"/>
-      <c r="AE12" s="14"/>
-      <c r="AF12" s="14"/>
-      <c r="AG12" s="15"/>
-    </row>
-    <row r="13" spans="1:177" ht="12.75" customHeight="1">
+      <c r="AF12" s="17"/>
+      <c r="AP12" s="14"/>
+      <c r="AQ12" s="14"/>
+      <c r="AR12" s="15"/>
+    </row>
+    <row r="13" spans="1:188" ht="12.75" customHeight="1">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -12074,22 +12176,33 @@
       <c r="R13" s="23"/>
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
       <c r="Z13" s="14"/>
       <c r="AA13" s="14"/>
       <c r="AB13" s="14"/>
       <c r="AC13" s="14"/>
       <c r="AD13" s="14"/>
       <c r="AE13" s="14"/>
-      <c r="AF13" s="14"/>
-      <c r="AG13" s="15"/>
-    </row>
-    <row r="14" spans="1:177" ht="12.75" customHeight="1">
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH13" s="68"/>
+      <c r="AI13" s="68"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="14"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="14"/>
+      <c r="AP13" s="14"/>
+      <c r="AQ13" s="14"/>
+      <c r="AR13" s="15"/>
+    </row>
+    <row r="14" spans="1:188" ht="12.75" customHeight="1">
       <c r="A14" s="13"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -12110,12 +12223,10 @@
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="W14" s="68"/>
-      <c r="X14" s="67"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
       <c r="Y14" s="14"/>
       <c r="Z14" s="14"/>
       <c r="AA14" s="14"/>
@@ -12123,10 +12234,22 @@
       <c r="AC14" s="14"/>
       <c r="AD14" s="14"/>
       <c r="AE14" s="14"/>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="15"/>
-    </row>
-    <row r="15" spans="1:177" ht="12.75" customHeight="1">
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AH14" s="68"/>
+      <c r="AI14" s="68"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="14"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="14"/>
+      <c r="AR14" s="15"/>
+    </row>
+    <row r="15" spans="1:188" ht="12.75" customHeight="1">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -12146,12 +12269,10 @@
       <c r="R15" s="14"/>
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="W15" s="68"/>
-      <c r="X15" s="67"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
       <c r="Y15" s="14"/>
       <c r="Z15" s="14"/>
       <c r="AA15" s="14"/>
@@ -12159,10 +12280,23 @@
       <c r="AC15" s="14"/>
       <c r="AD15" s="14"/>
       <c r="AE15" s="14"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="15"/>
-    </row>
-    <row r="16" spans="1:177" ht="12.75" customHeight="1">
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH15" s="68"/>
+      <c r="AI15" s="67"/>
+      <c r="AJ15" s="14"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="15"/>
+    </row>
+    <row r="16" spans="1:188" ht="12.75" customHeight="1">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -12183,12 +12317,10 @@
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="W16" s="69"/>
-      <c r="X16" s="67"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
       <c r="Y16" s="14"/>
       <c r="Z16" s="14"/>
       <c r="AA16" s="14"/>
@@ -12196,10 +12328,23 @@
       <c r="AC16" s="14"/>
       <c r="AD16" s="14"/>
       <c r="AE16" s="14"/>
-      <c r="AF16" s="14"/>
-      <c r="AG16" s="15"/>
-    </row>
-    <row r="17" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH16" s="68"/>
+      <c r="AI16" s="67"/>
+      <c r="AJ16" s="14"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="14"/>
+      <c r="AQ16" s="14"/>
+      <c r="AR16" s="15"/>
+    </row>
+    <row r="17" spans="1:44" ht="12.75" customHeight="1">
       <c r="A17" s="13"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -12220,12 +12365,10 @@
       <c r="R17" s="14"/>
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="W17" s="68"/>
-      <c r="X17" s="67"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
       <c r="Y17" s="14"/>
       <c r="Z17" s="14"/>
       <c r="AA17" s="14"/>
@@ -12233,10 +12376,21 @@
       <c r="AC17" s="14"/>
       <c r="AD17" s="14"/>
       <c r="AE17" s="14"/>
-      <c r="AF17" s="14"/>
-      <c r="AG17" s="15"/>
-    </row>
-    <row r="18" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="68"/>
+      <c r="AI17" s="67"/>
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="14"/>
+      <c r="AL17" s="14"/>
+      <c r="AM17" s="14"/>
+      <c r="AN17" s="14"/>
+      <c r="AO17" s="14"/>
+      <c r="AP17" s="14"/>
+      <c r="AQ17" s="14"/>
+      <c r="AR17" s="15"/>
+    </row>
+    <row r="18" spans="1:44" ht="12.75" customHeight="1">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -12257,12 +12411,10 @@
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="W18" s="68"/>
-      <c r="X18" s="67"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
       <c r="Y18" s="14"/>
       <c r="Z18" s="14"/>
       <c r="AA18" s="14"/>
@@ -12270,10 +12422,23 @@
       <c r="AC18" s="14"/>
       <c r="AD18" s="14"/>
       <c r="AE18" s="14"/>
-      <c r="AF18" s="14"/>
-      <c r="AG18" s="15"/>
-    </row>
-    <row r="19" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH18" s="68"/>
+      <c r="AI18" s="67"/>
+      <c r="AJ18" s="14"/>
+      <c r="AK18" s="14"/>
+      <c r="AL18" s="14"/>
+      <c r="AM18" s="14"/>
+      <c r="AN18" s="14"/>
+      <c r="AO18" s="14"/>
+      <c r="AP18" s="14"/>
+      <c r="AQ18" s="14"/>
+      <c r="AR18" s="15"/>
+    </row>
+    <row r="19" spans="1:44" ht="12.75" customHeight="1">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -12285,20 +12450,14 @@
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="14"/>
-      <c r="L19" s="14" t="s">
-        <v>57</v>
-      </c>
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
       <c r="P19" s="16"/>
-      <c r="Q19" s="14" t="s">
-        <v>58</v>
-      </c>
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
       <c r="T19" s="14"/>
-      <c r="U19" s="15"/>
+      <c r="U19" s="14"/>
       <c r="V19" s="14"/>
       <c r="W19" s="14"/>
       <c r="X19" s="14"/>
@@ -12309,10 +12468,21 @@
       <c r="AC19" s="14"/>
       <c r="AD19" s="14"/>
       <c r="AE19" s="14"/>
-      <c r="AF19" s="14"/>
-      <c r="AG19" s="15"/>
-    </row>
-    <row r="20" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="14"/>
+      <c r="AK19" s="14"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="14"/>
+      <c r="AN19" s="14"/>
+      <c r="AO19" s="14"/>
+      <c r="AP19" s="14"/>
+      <c r="AQ19" s="14"/>
+      <c r="AR19" s="15"/>
+    </row>
+    <row r="20" spans="1:44" ht="12.75" customHeight="1">
       <c r="A20" s="13"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -12331,20 +12501,23 @@
       <c r="P20" s="16"/>
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="1" t="s">
-        <v>80</v>
+      <c r="V20" s="14" t="s">
+        <v>58</v>
       </c>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="14"/>
-      <c r="AE20" s="14"/>
-      <c r="AF20" s="14"/>
-      <c r="AG20" s="15"/>
-    </row>
-    <row r="21" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AK20" s="14"/>
+      <c r="AL20" s="14"/>
+      <c r="AM20" s="14"/>
+      <c r="AN20" s="14"/>
+      <c r="AO20" s="14"/>
+      <c r="AP20" s="14"/>
+      <c r="AQ20" s="14"/>
+      <c r="AR20" s="15"/>
+    </row>
+    <row r="21" spans="1:44" ht="12.75" customHeight="1">
       <c r="A21" s="13"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -12363,20 +12536,21 @@
       <c r="P21" s="16"/>
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="1" t="s">
-        <v>81</v>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="1" t="s">
+        <v>84</v>
       </c>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
-      <c r="AG21" s="15"/>
-    </row>
-    <row r="22" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AH21" s="68"/>
+      <c r="AK21" s="14"/>
+      <c r="AL21" s="14"/>
+      <c r="AM21" s="14"/>
+      <c r="AN21" s="14"/>
+      <c r="AO21" s="14"/>
+      <c r="AP21" s="14"/>
+      <c r="AQ21" s="14"/>
+      <c r="AR21" s="15"/>
+    </row>
+    <row r="22" spans="1:44" ht="12.75" customHeight="1">
       <c r="A22" s="13"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -12395,21 +12569,20 @@
       <c r="P22" s="16"/>
       <c r="Q22" s="14"/>
       <c r="R22" s="14"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="1" t="s">
-        <v>79</v>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="1" t="s">
+        <v>85</v>
       </c>
-      <c r="W22" s="68"/>
-      <c r="Z22" s="14"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="14"/>
-      <c r="AC22" s="14"/>
-      <c r="AD22" s="14"/>
-      <c r="AE22" s="14"/>
-      <c r="AF22" s="14"/>
-      <c r="AG22" s="15"/>
-    </row>
-    <row r="23" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AK22" s="14"/>
+      <c r="AL22" s="14"/>
+      <c r="AM22" s="14"/>
+      <c r="AN22" s="14"/>
+      <c r="AO22" s="14"/>
+      <c r="AP22" s="14"/>
+      <c r="AQ22" s="14"/>
+      <c r="AR22" s="15"/>
+    </row>
+    <row r="23" spans="1:44" ht="12.75" customHeight="1">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -12427,22 +12600,26 @@
       <c r="O23" s="14"/>
       <c r="P23" s="16"/>
       <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="67"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="14"/>
-      <c r="AC23" s="14"/>
-      <c r="AD23" s="14"/>
-      <c r="AE23" s="14"/>
-      <c r="AF23" s="14"/>
-      <c r="AG23" s="15"/>
-    </row>
-    <row r="24" spans="1:33" ht="12.75" customHeight="1">
+      <c r="R23" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AH23" s="67"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="14"/>
+      <c r="AK23" s="14"/>
+      <c r="AL23" s="14"/>
+      <c r="AM23" s="14"/>
+      <c r="AN23" s="14"/>
+      <c r="AO23" s="14"/>
+      <c r="AP23" s="14"/>
+      <c r="AQ23" s="14"/>
+      <c r="AR23" s="15"/>
+    </row>
+    <row r="24" spans="1:44" ht="12.75" customHeight="1">
       <c r="A24" s="13"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -12461,21 +12638,23 @@
       <c r="P24" s="16"/>
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="67"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="14"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="14"/>
-      <c r="AC24" s="14"/>
-      <c r="AD24" s="14"/>
-      <c r="AE24" s="14"/>
-      <c r="AF24" s="14"/>
-      <c r="AG24" s="15"/>
-    </row>
-    <row r="25" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH24" s="67"/>
+      <c r="AI24" s="14"/>
+      <c r="AJ24" s="14"/>
+      <c r="AK24" s="14"/>
+      <c r="AL24" s="14"/>
+      <c r="AM24" s="14"/>
+      <c r="AN24" s="14"/>
+      <c r="AO24" s="14"/>
+      <c r="AP24" s="14"/>
+      <c r="AQ24" s="14"/>
+      <c r="AR24" s="15"/>
+    </row>
+    <row r="25" spans="1:44" ht="12.75" customHeight="1">
       <c r="A25" s="13"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -12494,21 +12673,23 @@
       <c r="P25" s="16"/>
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="68"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="14"/>
-      <c r="AE25" s="14"/>
-      <c r="AF25" s="14"/>
-      <c r="AG25" s="15"/>
-    </row>
-    <row r="26" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH25" s="68"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="14"/>
+      <c r="AK25" s="14"/>
+      <c r="AL25" s="14"/>
+      <c r="AM25" s="14"/>
+      <c r="AN25" s="14"/>
+      <c r="AO25" s="14"/>
+      <c r="AP25" s="14"/>
+      <c r="AQ25" s="14"/>
+      <c r="AR25" s="15"/>
+    </row>
+    <row r="26" spans="1:44" ht="12.75" customHeight="1">
       <c r="A26" s="13"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -12529,9 +12710,9 @@
       <c r="R26" s="14"/>
       <c r="S26" s="14"/>
       <c r="T26" s="14"/>
-      <c r="U26" s="15"/>
+      <c r="U26" s="14"/>
       <c r="V26" s="14"/>
-      <c r="W26" s="68"/>
+      <c r="W26" s="14"/>
       <c r="X26" s="14"/>
       <c r="Y26" s="14"/>
       <c r="Z26" s="14"/>
@@ -12540,10 +12721,21 @@
       <c r="AC26" s="14"/>
       <c r="AD26" s="14"/>
       <c r="AE26" s="14"/>
-      <c r="AF26" s="14"/>
-      <c r="AG26" s="15"/>
-    </row>
-    <row r="27" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="14"/>
+      <c r="AH26" s="68"/>
+      <c r="AI26" s="14"/>
+      <c r="AJ26" s="14"/>
+      <c r="AK26" s="14"/>
+      <c r="AL26" s="14"/>
+      <c r="AM26" s="14"/>
+      <c r="AN26" s="14"/>
+      <c r="AO26" s="14"/>
+      <c r="AP26" s="14"/>
+      <c r="AQ26" s="14"/>
+      <c r="AR26" s="15"/>
+    </row>
+    <row r="27" spans="1:44" ht="12.75" customHeight="1">
       <c r="A27" s="13"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -12564,9 +12756,9 @@
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
-      <c r="U27" s="15"/>
+      <c r="U27" s="14"/>
       <c r="V27" s="14"/>
-      <c r="W27" s="67"/>
+      <c r="W27" s="14"/>
       <c r="X27" s="14"/>
       <c r="Y27" s="14"/>
       <c r="Z27" s="14"/>
@@ -12575,10 +12767,23 @@
       <c r="AC27" s="14"/>
       <c r="AD27" s="14"/>
       <c r="AE27" s="14"/>
-      <c r="AF27" s="14"/>
-      <c r="AG27" s="15"/>
-    </row>
-    <row r="28" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH27" s="67"/>
+      <c r="AI27" s="14"/>
+      <c r="AJ27" s="14"/>
+      <c r="AK27" s="14"/>
+      <c r="AL27" s="14"/>
+      <c r="AM27" s="14"/>
+      <c r="AN27" s="14"/>
+      <c r="AO27" s="14"/>
+      <c r="AP27" s="14"/>
+      <c r="AQ27" s="14"/>
+      <c r="AR27" s="15"/>
+    </row>
+    <row r="28" spans="1:44" ht="12.75" customHeight="1">
       <c r="A28" s="13"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -12599,9 +12804,9 @@
       <c r="R28" s="14"/>
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
-      <c r="U28" s="15"/>
+      <c r="U28" s="14"/>
       <c r="V28" s="14"/>
-      <c r="W28" s="67"/>
+      <c r="W28" s="14"/>
       <c r="X28" s="14"/>
       <c r="Y28" s="14"/>
       <c r="Z28" s="14"/>
@@ -12610,10 +12815,23 @@
       <c r="AC28" s="14"/>
       <c r="AD28" s="14"/>
       <c r="AE28" s="14"/>
-      <c r="AF28" s="14"/>
-      <c r="AG28" s="15"/>
-    </row>
-    <row r="29" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AF28" s="15"/>
+      <c r="AG28" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH28" s="67"/>
+      <c r="AI28" s="14"/>
+      <c r="AJ28" s="14"/>
+      <c r="AK28" s="14"/>
+      <c r="AL28" s="14"/>
+      <c r="AM28" s="14"/>
+      <c r="AN28" s="14"/>
+      <c r="AO28" s="14"/>
+      <c r="AP28" s="14"/>
+      <c r="AQ28" s="14"/>
+      <c r="AR28" s="15"/>
+    </row>
+    <row r="29" spans="1:44" ht="12.75" customHeight="1">
       <c r="A29" s="13"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -12634,9 +12852,9 @@
       <c r="R29" s="14"/>
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
-      <c r="U29" s="15"/>
+      <c r="U29" s="14"/>
       <c r="V29" s="14"/>
-      <c r="W29" s="67"/>
+      <c r="W29" s="14"/>
       <c r="X29" s="14"/>
       <c r="Y29" s="14"/>
       <c r="Z29" s="14"/>
@@ -12645,10 +12863,23 @@
       <c r="AC29" s="14"/>
       <c r="AD29" s="14"/>
       <c r="AE29" s="14"/>
-      <c r="AF29" s="14"/>
-      <c r="AG29" s="15"/>
-    </row>
-    <row r="30" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH29" s="67"/>
+      <c r="AI29" s="14"/>
+      <c r="AJ29" s="14"/>
+      <c r="AK29" s="14"/>
+      <c r="AL29" s="14"/>
+      <c r="AM29" s="14"/>
+      <c r="AN29" s="14"/>
+      <c r="AO29" s="14"/>
+      <c r="AP29" s="14"/>
+      <c r="AQ29" s="14"/>
+      <c r="AR29" s="15"/>
+    </row>
+    <row r="30" spans="1:44" ht="12.75" customHeight="1">
       <c r="A30" s="13"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -12669,9 +12900,9 @@
       <c r="R30" s="14"/>
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
-      <c r="U30" s="15"/>
+      <c r="U30" s="14"/>
       <c r="V30" s="14"/>
-      <c r="W30" s="67"/>
+      <c r="W30" s="14"/>
       <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
       <c r="Z30" s="14"/>
@@ -12680,10 +12911,21 @@
       <c r="AC30" s="14"/>
       <c r="AD30" s="14"/>
       <c r="AE30" s="14"/>
-      <c r="AF30" s="14"/>
-      <c r="AG30" s="15"/>
-    </row>
-    <row r="31" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AF30" s="15"/>
+      <c r="AG30" s="14"/>
+      <c r="AH30" s="67"/>
+      <c r="AI30" s="14"/>
+      <c r="AJ30" s="14"/>
+      <c r="AK30" s="14"/>
+      <c r="AL30" s="14"/>
+      <c r="AM30" s="14"/>
+      <c r="AN30" s="14"/>
+      <c r="AO30" s="14"/>
+      <c r="AP30" s="14"/>
+      <c r="AQ30" s="14"/>
+      <c r="AR30" s="15"/>
+    </row>
+    <row r="31" spans="1:44" ht="12.75" customHeight="1">
       <c r="A31" s="13"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -12704,9 +12946,11 @@
       <c r="R31" s="14"/>
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="67"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="W31" s="14"/>
       <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
       <c r="Z31" s="14"/>
@@ -12715,10 +12959,21 @@
       <c r="AC31" s="14"/>
       <c r="AD31" s="14"/>
       <c r="AE31" s="14"/>
-      <c r="AF31" s="14"/>
-      <c r="AG31" s="15"/>
-    </row>
-    <row r="32" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="67"/>
+      <c r="AI31" s="14"/>
+      <c r="AJ31" s="14"/>
+      <c r="AK31" s="14"/>
+      <c r="AL31" s="14"/>
+      <c r="AM31" s="14"/>
+      <c r="AN31" s="14"/>
+      <c r="AO31" s="14"/>
+      <c r="AP31" s="14"/>
+      <c r="AQ31" s="14"/>
+      <c r="AR31" s="15"/>
+    </row>
+    <row r="32" spans="1:44" ht="12.75" customHeight="1">
       <c r="A32" s="13"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -12739,9 +12994,9 @@
       <c r="R32" s="14"/>
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
-      <c r="U32" s="15"/>
+      <c r="U32" s="14"/>
       <c r="V32" s="14"/>
-      <c r="W32" s="67"/>
+      <c r="W32" s="14"/>
       <c r="X32" s="14"/>
       <c r="Y32" s="14"/>
       <c r="Z32" s="14"/>
@@ -12750,10 +13005,21 @@
       <c r="AC32" s="14"/>
       <c r="AD32" s="14"/>
       <c r="AE32" s="14"/>
-      <c r="AF32" s="14"/>
-      <c r="AG32" s="15"/>
-    </row>
-    <row r="33" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AF32" s="15"/>
+      <c r="AG32" s="14"/>
+      <c r="AH32" s="67"/>
+      <c r="AI32" s="14"/>
+      <c r="AJ32" s="14"/>
+      <c r="AK32" s="14"/>
+      <c r="AL32" s="14"/>
+      <c r="AM32" s="14"/>
+      <c r="AN32" s="14"/>
+      <c r="AO32" s="14"/>
+      <c r="AP32" s="14"/>
+      <c r="AQ32" s="14"/>
+      <c r="AR32" s="15"/>
+    </row>
+    <row r="33" spans="1:44" ht="12.75" customHeight="1">
       <c r="A33" s="13"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -12773,7 +13039,7 @@
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
       <c r="T33" s="14"/>
-      <c r="U33" s="15"/>
+      <c r="U33" s="14"/>
       <c r="V33" s="14"/>
       <c r="W33" s="14"/>
       <c r="X33" s="14"/>
@@ -12784,10 +13050,21 @@
       <c r="AC33" s="14"/>
       <c r="AD33" s="14"/>
       <c r="AE33" s="14"/>
-      <c r="AF33" s="14"/>
-      <c r="AG33" s="15"/>
-    </row>
-    <row r="34" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AF33" s="15"/>
+      <c r="AG33" s="14"/>
+      <c r="AH33" s="14"/>
+      <c r="AI33" s="14"/>
+      <c r="AJ33" s="14"/>
+      <c r="AK33" s="14"/>
+      <c r="AL33" s="14"/>
+      <c r="AM33" s="14"/>
+      <c r="AN33" s="14"/>
+      <c r="AO33" s="14"/>
+      <c r="AP33" s="14"/>
+      <c r="AQ33" s="14"/>
+      <c r="AR33" s="15"/>
+    </row>
+    <row r="34" spans="1:44" ht="12.75" customHeight="1">
       <c r="A34" s="13"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -12808,8 +13085,9 @@
       <c r="R34" s="14"/>
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
-      <c r="U34" s="15"/>
+      <c r="U34" s="14"/>
       <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
       <c r="X34" s="14"/>
       <c r="Y34" s="14"/>
       <c r="Z34" s="14"/>
@@ -12818,10 +13096,20 @@
       <c r="AC34" s="14"/>
       <c r="AD34" s="14"/>
       <c r="AE34" s="14"/>
-      <c r="AF34" s="14"/>
-      <c r="AG34" s="15"/>
-    </row>
-    <row r="35" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AF34" s="15"/>
+      <c r="AG34" s="14"/>
+      <c r="AI34" s="14"/>
+      <c r="AJ34" s="14"/>
+      <c r="AK34" s="14"/>
+      <c r="AL34" s="14"/>
+      <c r="AM34" s="14"/>
+      <c r="AN34" s="14"/>
+      <c r="AO34" s="14"/>
+      <c r="AP34" s="14"/>
+      <c r="AQ34" s="14"/>
+      <c r="AR34" s="15"/>
+    </row>
+    <row r="35" spans="1:44" ht="12.75" customHeight="1">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -12839,12 +13127,14 @@
       <c r="O35" s="14"/>
       <c r="P35" s="16"/>
       <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
+      <c r="R35" s="14" t="s">
+        <v>74</v>
+      </c>
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
-      <c r="U35" s="15"/>
-      <c r="V35" s="16"/>
-      <c r="W35" s="16"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
       <c r="X35" s="14"/>
       <c r="Y35" s="14"/>
       <c r="Z35" s="14"/>
@@ -12853,10 +13143,21 @@
       <c r="AC35" s="14"/>
       <c r="AD35" s="14"/>
       <c r="AE35" s="14"/>
-      <c r="AF35" s="14"/>
-      <c r="AG35" s="15"/>
-    </row>
-    <row r="36" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AF35" s="15"/>
+      <c r="AG35" s="16"/>
+      <c r="AH35" s="16"/>
+      <c r="AI35" s="14"/>
+      <c r="AJ35" s="14"/>
+      <c r="AK35" s="14"/>
+      <c r="AL35" s="14"/>
+      <c r="AM35" s="14"/>
+      <c r="AN35" s="14"/>
+      <c r="AO35" s="14"/>
+      <c r="AP35" s="14"/>
+      <c r="AQ35" s="14"/>
+      <c r="AR35" s="15"/>
+    </row>
+    <row r="36" spans="1:44" ht="12.75" customHeight="1">
       <c r="A36" s="13"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -12877,7 +13178,7 @@
       <c r="R36" s="14"/>
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
-      <c r="U36" s="15"/>
+      <c r="U36" s="14"/>
       <c r="V36" s="14"/>
       <c r="W36" s="14"/>
       <c r="X36" s="14"/>
@@ -12888,10 +13189,21 @@
       <c r="AC36" s="14"/>
       <c r="AD36" s="14"/>
       <c r="AE36" s="14"/>
-      <c r="AF36" s="14"/>
-      <c r="AG36" s="15"/>
-    </row>
-    <row r="37" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AF36" s="15"/>
+      <c r="AG36" s="14"/>
+      <c r="AH36" s="14"/>
+      <c r="AI36" s="14"/>
+      <c r="AJ36" s="14"/>
+      <c r="AK36" s="14"/>
+      <c r="AL36" s="14"/>
+      <c r="AM36" s="14"/>
+      <c r="AN36" s="14"/>
+      <c r="AO36" s="14"/>
+      <c r="AP36" s="14"/>
+      <c r="AQ36" s="14"/>
+      <c r="AR36" s="15"/>
+    </row>
+    <row r="37" spans="1:44" ht="12.75" customHeight="1">
       <c r="A37" s="13"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -12912,7 +13224,7 @@
       <c r="R37" s="14"/>
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
-      <c r="U37" s="15"/>
+      <c r="U37" s="14"/>
       <c r="V37" s="14"/>
       <c r="W37" s="14"/>
       <c r="X37" s="14"/>
@@ -12923,10 +13235,21 @@
       <c r="AC37" s="14"/>
       <c r="AD37" s="14"/>
       <c r="AE37" s="14"/>
-      <c r="AF37" s="14"/>
-      <c r="AG37" s="15"/>
-    </row>
-    <row r="38" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AF37" s="15"/>
+      <c r="AG37" s="14"/>
+      <c r="AH37" s="14"/>
+      <c r="AI37" s="14"/>
+      <c r="AJ37" s="14"/>
+      <c r="AK37" s="14"/>
+      <c r="AL37" s="14"/>
+      <c r="AM37" s="14"/>
+      <c r="AN37" s="14"/>
+      <c r="AO37" s="14"/>
+      <c r="AP37" s="14"/>
+      <c r="AQ37" s="14"/>
+      <c r="AR37" s="15"/>
+    </row>
+    <row r="38" spans="1:44" ht="12.75" customHeight="1">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -12945,17 +13268,17 @@
       <c r="P38" s="16"/>
       <c r="Q38" s="14"/>
       <c r="R38" s="14"/>
-      <c r="U38" s="17"/>
-      <c r="Z38" s="14"/>
-      <c r="AA38" s="14"/>
-      <c r="AB38" s="14"/>
-      <c r="AC38" s="14"/>
-      <c r="AD38" s="14"/>
-      <c r="AE38" s="14"/>
-      <c r="AF38" s="14"/>
-      <c r="AG38" s="15"/>
-    </row>
-    <row r="39" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AF38" s="17"/>
+      <c r="AK38" s="14"/>
+      <c r="AL38" s="14"/>
+      <c r="AM38" s="14"/>
+      <c r="AN38" s="14"/>
+      <c r="AO38" s="14"/>
+      <c r="AP38" s="14"/>
+      <c r="AQ38" s="14"/>
+      <c r="AR38" s="15"/>
+    </row>
+    <row r="39" spans="1:44" ht="12.75" customHeight="1">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -12975,17 +13298,17 @@
       <c r="Q39" s="14"/>
       <c r="R39" s="14"/>
       <c r="S39" s="14"/>
-      <c r="U39" s="17"/>
-      <c r="Z39" s="14"/>
-      <c r="AA39" s="14"/>
-      <c r="AB39" s="14"/>
-      <c r="AC39" s="14"/>
-      <c r="AD39" s="14"/>
-      <c r="AE39" s="14"/>
-      <c r="AF39" s="14"/>
-      <c r="AG39" s="15"/>
-    </row>
-    <row r="40" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AF39" s="17"/>
+      <c r="AK39" s="14"/>
+      <c r="AL39" s="14"/>
+      <c r="AM39" s="14"/>
+      <c r="AN39" s="14"/>
+      <c r="AO39" s="14"/>
+      <c r="AP39" s="14"/>
+      <c r="AQ39" s="14"/>
+      <c r="AR39" s="15"/>
+    </row>
+    <row r="40" spans="1:44" ht="12.75" customHeight="1">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -13004,17 +13327,17 @@
       <c r="P40" s="16"/>
       <c r="Q40" s="14"/>
       <c r="R40" s="14"/>
-      <c r="U40" s="17"/>
-      <c r="Z40" s="14"/>
-      <c r="AA40" s="14"/>
-      <c r="AB40" s="14"/>
-      <c r="AC40" s="14"/>
-      <c r="AD40" s="14"/>
-      <c r="AE40" s="14"/>
-      <c r="AF40" s="14"/>
-      <c r="AG40" s="15"/>
-    </row>
-    <row r="41" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AF40" s="17"/>
+      <c r="AK40" s="14"/>
+      <c r="AL40" s="14"/>
+      <c r="AM40" s="14"/>
+      <c r="AN40" s="14"/>
+      <c r="AO40" s="14"/>
+      <c r="AP40" s="14"/>
+      <c r="AQ40" s="14"/>
+      <c r="AR40" s="15"/>
+    </row>
+    <row r="41" spans="1:44" ht="12.75" customHeight="1">
       <c r="A41" s="13"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -13033,17 +13356,17 @@
       <c r="P41" s="16"/>
       <c r="Q41" s="14"/>
       <c r="R41" s="14"/>
-      <c r="U41" s="17"/>
-      <c r="Z41" s="14"/>
-      <c r="AA41" s="14"/>
-      <c r="AB41" s="14"/>
-      <c r="AC41" s="14"/>
-      <c r="AD41" s="14"/>
-      <c r="AE41" s="14"/>
-      <c r="AF41" s="14"/>
-      <c r="AG41" s="15"/>
-    </row>
-    <row r="42" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AF41" s="17"/>
+      <c r="AK41" s="14"/>
+      <c r="AL41" s="14"/>
+      <c r="AM41" s="14"/>
+      <c r="AN41" s="14"/>
+      <c r="AO41" s="14"/>
+      <c r="AP41" s="14"/>
+      <c r="AQ41" s="14"/>
+      <c r="AR41" s="15"/>
+    </row>
+    <row r="42" spans="1:44" ht="12.75" customHeight="1">
       <c r="A42" s="13"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -13062,17 +13385,17 @@
       <c r="P42" s="16"/>
       <c r="Q42" s="14"/>
       <c r="R42" s="14"/>
-      <c r="U42" s="17"/>
-      <c r="Z42" s="14"/>
-      <c r="AA42" s="14"/>
-      <c r="AB42" s="14"/>
-      <c r="AC42" s="14"/>
-      <c r="AD42" s="14"/>
-      <c r="AE42" s="14"/>
-      <c r="AF42" s="14"/>
-      <c r="AG42" s="15"/>
-    </row>
-    <row r="43" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AF42" s="17"/>
+      <c r="AK42" s="14"/>
+      <c r="AL42" s="14"/>
+      <c r="AM42" s="14"/>
+      <c r="AN42" s="14"/>
+      <c r="AO42" s="14"/>
+      <c r="AP42" s="14"/>
+      <c r="AQ42" s="14"/>
+      <c r="AR42" s="15"/>
+    </row>
+    <row r="43" spans="1:44" ht="12.75" customHeight="1">
       <c r="A43" s="13"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -13091,17 +13414,20 @@
       <c r="P43" s="16"/>
       <c r="Q43" s="14"/>
       <c r="R43" s="14"/>
-      <c r="U43" s="17"/>
-      <c r="Z43" s="14"/>
-      <c r="AA43" s="14"/>
-      <c r="AB43" s="14"/>
-      <c r="AC43" s="14"/>
-      <c r="AD43" s="14"/>
-      <c r="AE43" s="14"/>
-      <c r="AF43" s="14"/>
-      <c r="AG43" s="15"/>
-    </row>
-    <row r="44" spans="1:33" ht="12.75" customHeight="1">
+      <c r="V43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF43" s="17"/>
+      <c r="AK43" s="14"/>
+      <c r="AL43" s="14"/>
+      <c r="AM43" s="14"/>
+      <c r="AN43" s="14"/>
+      <c r="AO43" s="14"/>
+      <c r="AP43" s="14"/>
+      <c r="AQ43" s="14"/>
+      <c r="AR43" s="15"/>
+    </row>
+    <row r="44" spans="1:44" ht="12.75" customHeight="1">
       <c r="A44" s="13"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -13120,103 +13446,164 @@
       <c r="P44" s="16"/>
       <c r="Q44" s="14"/>
       <c r="R44" s="14"/>
-      <c r="U44" s="17"/>
-      <c r="Z44" s="14"/>
-      <c r="AA44" s="14"/>
-      <c r="AB44" s="14"/>
-      <c r="AC44" s="14"/>
-      <c r="AD44" s="14"/>
-      <c r="AE44" s="14"/>
-      <c r="AF44" s="14"/>
-      <c r="AG44" s="15"/>
-    </row>
-    <row r="45" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AF44" s="17"/>
+      <c r="AK44" s="14"/>
+      <c r="AL44" s="14"/>
+      <c r="AM44" s="14"/>
+      <c r="AN44" s="14"/>
+      <c r="AO44" s="14"/>
+      <c r="AP44" s="14"/>
+      <c r="AQ44" s="14"/>
+      <c r="AR44" s="15"/>
+    </row>
+    <row r="45" spans="1:44" ht="12.75" customHeight="1">
       <c r="H45" s="40"/>
-      <c r="U45" s="17"/>
-      <c r="AG45" s="47"/>
-    </row>
-    <row r="46" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AF45" s="17"/>
+      <c r="AR45" s="47"/>
+    </row>
+    <row r="46" spans="1:44" ht="12.75" customHeight="1">
       <c r="H46" s="40"/>
-      <c r="U46" s="17"/>
-      <c r="AG46" s="47"/>
-    </row>
-    <row r="47" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AF46" s="17"/>
+      <c r="AR46" s="47"/>
+    </row>
+    <row r="47" spans="1:44" ht="12.75" customHeight="1">
       <c r="H47" s="40"/>
-      <c r="U47" s="17"/>
-      <c r="AG47" s="47"/>
-    </row>
-    <row r="48" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AF47" s="17"/>
+      <c r="AR47" s="47"/>
+    </row>
+    <row r="48" spans="1:44" ht="12.75" customHeight="1">
       <c r="H48" s="40"/>
-      <c r="U48" s="17"/>
-      <c r="AG48" s="47"/>
-    </row>
-    <row r="49" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AF48" s="17"/>
+      <c r="AR48" s="47"/>
+    </row>
+    <row r="49" spans="1:44" ht="12.75" customHeight="1">
       <c r="H49" s="40"/>
-      <c r="U49" s="17"/>
-      <c r="AG49" s="47"/>
-    </row>
-    <row r="50" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AF49" s="17"/>
+      <c r="AR49" s="47"/>
+    </row>
+    <row r="50" spans="1:44" ht="12.75" customHeight="1">
       <c r="H50" s="40"/>
-      <c r="U50" s="17"/>
-      <c r="AG50" s="47"/>
-    </row>
-    <row r="51" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AF50" s="17"/>
+      <c r="AR50" s="47"/>
+    </row>
+    <row r="51" spans="1:44" ht="12.75" customHeight="1">
       <c r="H51" s="40"/>
-      <c r="U51" s="17"/>
-      <c r="AG51" s="47"/>
-    </row>
-    <row r="52" spans="1:33" ht="12.75" customHeight="1">
+      <c r="AF51" s="17"/>
+      <c r="AR51" s="47"/>
+    </row>
+    <row r="52" spans="1:44" ht="12.75" customHeight="1">
       <c r="H52" s="40"/>
-      <c r="U52" s="17"/>
-      <c r="AG52" s="47"/>
-    </row>
-    <row r="53" spans="1:33" ht="12.75" customHeight="1">
-      <c r="A53" s="44"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="44"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="44"/>
-      <c r="J53" s="44"/>
-      <c r="K53" s="44"/>
-      <c r="L53" s="44"/>
-      <c r="M53" s="44"/>
-      <c r="N53" s="44"/>
-      <c r="O53" s="44"/>
-      <c r="P53" s="44"/>
-      <c r="Q53" s="44"/>
-      <c r="R53" s="44"/>
-      <c r="S53" s="44"/>
-      <c r="T53" s="44"/>
-      <c r="U53" s="45"/>
-      <c r="V53" s="44"/>
-      <c r="W53" s="44"/>
-      <c r="X53" s="44"/>
-      <c r="Y53" s="44"/>
-      <c r="Z53" s="44"/>
-      <c r="AA53" s="44"/>
-      <c r="AB53" s="44"/>
-      <c r="AC53" s="44"/>
-      <c r="AD53" s="44"/>
-      <c r="AE53" s="74"/>
-      <c r="AF53" s="74"/>
-      <c r="AG53" s="77"/>
+      <c r="AF52" s="17"/>
+      <c r="AR52" s="47"/>
+    </row>
+    <row r="53" spans="1:44" ht="12.75" customHeight="1">
+      <c r="H53" s="40"/>
+      <c r="AF53" s="17"/>
+      <c r="AR53" s="47"/>
+    </row>
+    <row r="54" spans="1:44" ht="12.75" customHeight="1">
+      <c r="H54" s="40"/>
+      <c r="AF54" s="17"/>
+      <c r="AR54" s="47"/>
+    </row>
+    <row r="55" spans="1:44" ht="12.75" customHeight="1">
+      <c r="H55" s="40"/>
+      <c r="AF55" s="17"/>
+      <c r="AR55" s="47"/>
+    </row>
+    <row r="56" spans="1:44" ht="12.75" customHeight="1">
+      <c r="H56" s="40"/>
+      <c r="AF56" s="17"/>
+      <c r="AR56" s="47"/>
+    </row>
+    <row r="57" spans="1:44" ht="12.75" customHeight="1">
+      <c r="H57" s="40"/>
+      <c r="AF57" s="17"/>
+      <c r="AR57" s="47"/>
+    </row>
+    <row r="58" spans="1:44" ht="12.75" customHeight="1">
+      <c r="H58" s="40"/>
+      <c r="AF58" s="17"/>
+      <c r="AR58" s="47"/>
+    </row>
+    <row r="59" spans="1:44" ht="12.75" customHeight="1">
+      <c r="H59" s="40"/>
+      <c r="AF59" s="17"/>
+      <c r="AR59" s="47"/>
+    </row>
+    <row r="60" spans="1:44" ht="12.75" customHeight="1">
+      <c r="H60" s="40"/>
+      <c r="AF60" s="17"/>
+      <c r="AR60" s="47"/>
+    </row>
+    <row r="61" spans="1:44" ht="12.75" customHeight="1">
+      <c r="H61" s="40"/>
+      <c r="AF61" s="17"/>
+      <c r="AR61" s="47"/>
+    </row>
+    <row r="62" spans="1:44" ht="12.75" customHeight="1">
+      <c r="H62" s="40"/>
+      <c r="AF62" s="17"/>
+      <c r="AR62" s="47"/>
+    </row>
+    <row r="63" spans="1:44" ht="12.75" customHeight="1">
+      <c r="A63" s="44"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="72"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="71"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="44"/>
+      <c r="L63" s="44"/>
+      <c r="M63" s="44"/>
+      <c r="N63" s="44"/>
+      <c r="O63" s="44"/>
+      <c r="P63" s="44"/>
+      <c r="Q63" s="44"/>
+      <c r="R63" s="44"/>
+      <c r="S63" s="44"/>
+      <c r="T63" s="44"/>
+      <c r="U63" s="44"/>
+      <c r="V63" s="44"/>
+      <c r="W63" s="44"/>
+      <c r="X63" s="44"/>
+      <c r="Y63" s="44"/>
+      <c r="Z63" s="44"/>
+      <c r="AA63" s="44"/>
+      <c r="AB63" s="44"/>
+      <c r="AC63" s="44"/>
+      <c r="AD63" s="44"/>
+      <c r="AE63" s="44"/>
+      <c r="AF63" s="45"/>
+      <c r="AG63" s="44"/>
+      <c r="AH63" s="44"/>
+      <c r="AI63" s="44"/>
+      <c r="AJ63" s="44"/>
+      <c r="AK63" s="44"/>
+      <c r="AL63" s="44"/>
+      <c r="AM63" s="44"/>
+      <c r="AN63" s="44"/>
+      <c r="AO63" s="44"/>
+      <c r="AP63" s="73"/>
+      <c r="AQ63" s="73"/>
+      <c r="AR63" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="M2:Y2"/>
+    <mergeCell ref="AO3:AR3"/>
+    <mergeCell ref="M2:AJ2"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="A4:G4"/>
-    <mergeCell ref="H4:U4"/>
-    <mergeCell ref="V4:AG4"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="H4:AF4"/>
+    <mergeCell ref="AG4:AR4"/>
+    <mergeCell ref="AK2:AN2"/>
+    <mergeCell ref="AK3:AN3"/>
+    <mergeCell ref="AO2:AR2"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
